--- a/biology/Médecine/Denis_Martin-Laval/Denis_Martin-Laval.xlsx
+++ b/biology/Médecine/Denis_Martin-Laval/Denis_Martin-Laval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Denis Martin-Laval, né le 19 juin 1930 à Marseille et mort le 24 janvier 2013 dans la même ville[1], est un médecin et acteur français[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denis Martin-Laval, né le 19 juin 1930 à Marseille et mort le 24 janvier 2013 dans la même ville, est un médecin et acteur français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut, pendant de nombreuses missions, le médecin de la Calypso, le navire de recherches océanographiques de l'équipe du commandant Cousteau. Il a notamment participé au film Le Monde du silence, Palme d'or du festival de Cannes 1956.
 Père du comédien Pierre-François Martin-Laval, ancien membre de la troupe des Robins des Bois, il a participé à de nombreux sketchs de la troupe comique et a tourné dans le premier film de son fils, Essaye-moi (2006). À propos de Pierre Richard dans ce même film, Pierre-François Martin-Laval a déclaré : « Ce rôle je l'ai écrit pour lui, qui ressemble tant à mon père. Ils sont tous les deux distraits, sensibles, les yeux bleus, si drôles et si touchants »[réf. nécessaire]. Denis Martin-Laval incarne le vieux monsieur voulant rentrer dans le lycée refusé par Boulard et un pêcheur dans le film de son fils : Les Profs en 2013.
